--- a/DateBase/orders/Nhat 48_2026-1-1.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-1.xlsx
@@ -989,6 +989,9 @@
       <c r="G2" t="str">
         <v>0107888688882020101015555403020102020810510551010251010555151810510205555101551010103430</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
